--- a/customer_database.xlsx
+++ b/customer_database.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -679,6 +679,191 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>wqeqw qweqwe</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>wqeqwe</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>wqeqwe</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>wqeqew</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>06/25/22</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3 day(s)</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Vanessa Catamora</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Masbate City</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>09706228870</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>vanessaguerrero@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>05/27/22</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2 day(s)</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>firstname lastname</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>masbate</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0966666666</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>firstname@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>06/10/22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5 day(s)</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>wqeqw wqeqwe</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>wqeqew</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>wqee</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>07/10/22</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2 day(s)</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>yawa yawa</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>wqeqwe</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>07/30/22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2 day(s)</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/customer_database.xlsx
+++ b/customer_database.xlsx
@@ -404,10 +404,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -497,22 +497,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>JM Catamora</t>
+          <t>VANESSA GUERRERO</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Masbate City</t>
+          <t>MASBATE CITY</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>09706228870</t>
+          <t>09468837618</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1910598john@gmail.com</t>
+          <t>vanessa@gmail.com</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -522,19 +522,19 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>2 day(s)</t>
+          <t>3 day(s)</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>1290</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>JOHN MARK CATAMORA</t>
+          <t>SLOAN STRUBLE</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -544,323 +544,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>09706224545</t>
+          <t>09706228870</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>jmcatamora07@gmail.com</t>
+          <t>sloanstruble@gmail.com</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>06/05/22</t>
+          <t>06/10/22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2 day(s)</t>
+          <t>5 day(s)</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>860</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Sloan Struble</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Masbate City</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>09468837618</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>jmcatamora07@gmail.com</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>06/10/22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3 day(s)</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>vanessa vanessa</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>vanessa</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>094454545</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>vanessa@vanessa.com</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>07/20/22</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2 day(s)</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>test testt</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>test test test</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>094687878</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>05/25/22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3 day(s)</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>wqeqw qweqwe</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>wqeqwe</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>wqeqwe</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>wqeqew</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>06/25/22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3 day(s)</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1290</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Vanessa Catamora</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Masbate City</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>09706228870</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>vanessaguerrero@gmail.com</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>05/27/22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2 day(s)</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>firstname lastname</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>masbate</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0966666666</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>firstname@gmail.com</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>06/10/22</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5 day(s)</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
           <t>2150</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>wqeqw wqeqwe</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>qweqwe</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>wqeqew</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>wqee</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>07/10/22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2 day(s)</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>yawa yawa</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>weqwe</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>qweqwe</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>wqeqwe</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>07/30/22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2 day(s)</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>860</t>
         </is>
       </c>
     </row>

--- a/customer_database.xlsx
+++ b/customer_database.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -568,6 +568,43 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>JM CATAMORA</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>MASBATE CITY</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>09468837618</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>jmcatamora07@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>07/01/22</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2 day(s)</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/customer_database.xlsx
+++ b/customer_database.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -605,6 +605,43 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RANDY MARCAIDA</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>DAPDAP MASBATE</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0945454555</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>randymarcaida@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>05/05/22</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1 day(s)</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
